--- a/src/test/resources/Testdata.xlsx
+++ b/src/test/resources/Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmask\eclipse-workspace\com.ecommerce\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5049C91-7D89-4649-9A5A-5AA82BB97366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14587BB9-A9DE-4FFD-9BD0-F2AC7C922A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{30F44F17-A94C-4CD5-B801-BF7D0D3978CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{30F44F17-A94C-4CD5-B801-BF7D0D3978CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="BillShip" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="DP" sheetId="5" r:id="rId5"/>
+    <sheet name="InterviewQue" sheetId="6" r:id="rId6"/>
+    <sheet name="Iphone13" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
   <si>
     <t>Organization</t>
   </si>
@@ -158,6 +160,63 @@
   </si>
   <si>
     <t>US(America)</t>
+  </si>
+  <si>
+    <t>empid</t>
+  </si>
+  <si>
+    <t>empname</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>Sindhu</t>
+  </si>
+  <si>
+    <t>Himanshu</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>shipping Street</t>
+  </si>
+  <si>
+    <t>61,999</t>
+  </si>
+  <si>
+    <t>89,999</t>
+  </si>
+  <si>
+    <t>94,900</t>
+  </si>
+  <si>
+    <t>3,499</t>
+  </si>
+  <si>
+    <t>2,499</t>
+  </si>
+  <si>
+    <t>3,199</t>
   </si>
 </sst>
 </file>
@@ -664,7 +723,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B8"/>
+      <selection activeCell="G25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,10 +889,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF675DF2-3217-48EB-8D8F-4DD5008839C5}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,6 +965,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -915,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945FB884-8D2E-44A5-AF54-45ACC083F0F7}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -949,4 +1013,144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88BB3E6-3685-493E-B154-737EDC693998}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFF5200-C6C7-46D9-B70C-DC0191A9438F}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>